--- a/public/pendudukData/gimana.xlsx
+++ b/public/pendudukData/gimana.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MOHAMAD IBNU MAGGIE\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FD7A3F4-8F91-4E10-8ADE-0A880DEC2094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1036AEA8-13AA-462F-9AF1-16EFC099B27F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{443D1C4D-C17A-450D-A3A6-2DA430604E0B}"/>
   </bookViews>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
-  <si>
-    <t>G</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="39">
   <si>
     <t>perempuan</t>
   </si>
@@ -97,6 +94,63 @@
   </si>
   <si>
     <t>aktif</t>
+  </si>
+  <si>
+    <t>laki laki</t>
+  </si>
+  <si>
+    <t>jakarta</t>
+  </si>
+  <si>
+    <t>smk</t>
+  </si>
+  <si>
+    <t>pns</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>belum menikah</t>
+  </si>
+  <si>
+    <t>yauda</t>
+  </si>
+  <si>
+    <t>ada</t>
+  </si>
+  <si>
+    <t>ihi</t>
+  </si>
+  <si>
+    <t>kp jangari</t>
+  </si>
+  <si>
+    <t>jaba barat</t>
+  </si>
+  <si>
+    <t>28-10-2002</t>
+  </si>
+  <si>
+    <t>3203100207063098</t>
+  </si>
+  <si>
+    <t>3203101302660007</t>
+  </si>
+  <si>
+    <t>endang prianto</t>
+  </si>
+  <si>
+    <t>13-02-1966</t>
+  </si>
+  <si>
+    <t>buruh harian lepas</t>
+  </si>
+  <si>
+    <t>Wni</t>
+  </si>
+  <si>
+    <t>kp babakan caringin</t>
   </si>
 </sst>
 </file>
@@ -132,9 +186,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -449,15 +504,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AF7FB53-73F2-4371-A4C8-8C898DB10E4A}">
-  <dimension ref="B1:AE1"/>
+  <dimension ref="B1:AE3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="AE3" sqref="AE3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="3" width="17.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:31" x14ac:dyDescent="0.3">
@@ -467,59 +525,59 @@
       <c r="C1">
         <v>111</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1">
+        <v>23031</v>
+      </c>
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
       </c>
       <c r="G1" s="1">
         <v>30632</v>
       </c>
       <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>7</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>8</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>9</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>10</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R1" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T1" t="s">
         <v>11</v>
       </c>
-      <c r="R1" t="s">
-        <v>12</v>
-      </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>13</v>
-      </c>
-      <c r="T1" t="s">
-        <v>12</v>
-      </c>
-      <c r="U1" t="s">
-        <v>14</v>
       </c>
       <c r="V1">
         <v>2</v>
@@ -531,25 +589,209 @@
         <v>43281</v>
       </c>
       <c r="Y1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z1" t="s">
         <v>15</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB1" t="s">
         <v>16</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>111</v>
+      </c>
+      <c r="C2">
+        <v>222</v>
+      </c>
+      <c r="D2">
+        <v>23032</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="1">
+        <v>32122</v>
+      </c>
+      <c r="H2" t="s">
         <v>2</v>
       </c>
-      <c r="AB1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC1" t="s">
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="1">
+        <v>397669</v>
+      </c>
+      <c r="N2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U2" t="s">
+        <v>29</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2">
+        <v>43207</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD2" t="s">
         <v>18</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE2" t="s">
         <v>19</v>
       </c>
-      <c r="AE1" t="s">
+    </row>
+    <row r="3" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
         <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T3" t="s">
+        <v>11</v>
+      </c>
+      <c r="U3" t="s">
+        <v>38</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <v>2</v>
+      </c>
+      <c r="X3">
+        <v>43208</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>37176</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
